--- a/public/preprocessing/@basuki_btp.xlsx
+++ b/public/preprocessing/@basuki_btp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21770</v>
+        <v>30348</v>
       </c>
       <c r="C2" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['rt', 'perjuangan', 'atas', 'nama', 'partai', 'demokrasi', 'indonesia', 'perjuangan', 'ahok', 'mengucapkan', 'selamat', 'merayakan', 'tahun', 'baru', 'imlek', 'khususnya', 'tahun']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['perjuangan', 'nama', 'partai', 'demokrasi', 'indonesia', 'perjuangan', 'ahok', 'selamat', 'merayakan', 'imlek']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['juang', 'nama', 'partai', 'demokrasi', 'indonesia', 'juang', 'ahok', 'selamat', 'raya', 'imlek']</t>
         </is>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21771</v>
+        <v>30349</v>
       </c>
       <c r="C3" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,15 +538,20 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['rt', 'perjuangan', 'terima', 'kasih', 'ahok', 'untuk', 'ibu', 'megawati', 'atas', 'konsistensinya', 'perjuangkan', 'hak', 'setiap', 'anak', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>['perjuangan', 'terima', 'kasih', 'ahok', 'megawati', 'konsistensinya', 'perjuangkan', 'hak', 'anak', 'bangsa']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>['juang', 'terima', 'kasih', 'ahok', 'megawati', 'konsistensi', 'juang', 'hak', 'anak', 'bangsa']</t>
         </is>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21772</v>
+        <v>30350</v>
       </c>
       <c r="C4" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,15 +579,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['saya', 'dan', 'keluarga', 'mengucapkan', 'selamat', 'tahun', 'baru', 'imlek', 'gong', 'xi', 'fa', 'cai', 'bagi', 'saudarasaudari', 'yang', 'merayakannya', 'sem']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>['keluarga', 'selamat', 'imlek', 'gong', 'xi', 'fa', 'cai', 'saudarasaudari', 'merayakannya', 'sem']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>['keluarga', 'selamat', 'imlek', 'gong', 'xi', 'fa', 'cai', 'saudarasaudari', 'raya', 'sem']</t>
         </is>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>21773</v>
+        <v>30351</v>
       </c>
       <c r="C5" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['rt', 'perjuangan', 'saksikan', 'imlekan', 'bareng', 'banteng', 'live', 'di', 'kanal', 'youtube', 'dan', 'facebook', 'fan', 'page', 'partai, demokrasi, indonesia', 'perjuangan', 'jumat', 'februari', 'puku']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['perjuangan', 'saksikan', 'imlekan', 'bareng', 'banteng', 'live', 'kanal', 'youtube', 'facebook', 'fan', 'page', 'pdi', 'perjuangan', 'jumat', 'februari', 'puku']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['juang', 'saksi', 'imlek', 'bareng', 'banteng', 'live', 'kanal', 'youtube', 'facebook', 'fan', 'page', 'pdi', 'juang', 'jumat', 'februari', 'puku']</t>
+          <t>['perjuangan', 'saksikan', 'imlekan', 'bareng', 'banteng', 'live', 'kanal', 'youtube', 'facebook', 'fan', 'page', 'partai, demokrasi, indonesia', 'perjuangan', 'jumat', 'februari', 'puku']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['juang', 'saksi', 'imlek', 'bareng', 'banteng', 'live', 'kanal', 'youtube', 'facebook', 'fan', 'page', 'partai demokrasi indonesia', 'juang', 'jumat', 'februari', 'puku']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>21774</v>
+        <v>30352</v>
       </c>
       <c r="C6" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['selamat', 'ulang', 'tahun', 'presiden', 'kelima', 'republik', 'indonesia', 'ibu', 'megawati', 'soekarno, putri', 'yang', 'ke', 'semoga', 'panjang', 'umur']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['selamat', 'ulang', 'presiden', 'republik', 'indonesia', 'megawati', 'soekarnoputri', 'semoga', 'umur']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'presiden', 'republik', 'indonesia', 'megawati', 'soekarnoputri', 'moga', 'umur']</t>
+          <t>['selamat', 'ulang', 'presiden', 'republik', 'indonesia', 'megawati', 'soekarno, putri', 'semoga', 'umur']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'presiden', 'republik', 'indonesia', 'megawati', 'soekarno putri', 'moga', 'umur']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21775</v>
+        <v>30353</v>
       </c>
       <c r="C7" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,17 +702,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['salah', 'satu', 'bentuk', 'kado', 'dari', 'anggota', 'kepada', 'saya', 'dan', 'warga', 'dengan', 'terjun', 'langsung', 'kepada', 'masyarakat', 'dan', 'mela']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['salah', 'bentuk', 'kado', 'anggota', 'warga', 'terjun', 'langsung', 'kpd', 'masyarakat', 'mela']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['salah', 'bentuk', 'kado', 'anggota', 'warga', 'terjun', 'langsung', 'kpd', 'masyarakat', 'mela']</t>
+          <t>['salah', 'bentuk', 'kado', 'anggota', 'warga', 'terjun', 'langsung', 'masyarakat', 'mela']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['salah', 'bentuk', 'kado', 'anggota', 'warga', 'terjun', 'langsung', 'masyarakat', 'mela']</t>
         </is>
       </c>
     </row>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21776</v>
+        <v>30354</v>
       </c>
       <c r="C8" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,17 +743,22 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['selamat', 'hari, ulang, tahun', 'ke', 'semoga', 'selalu', 'menjadi', 'partai', 'yang', 'setia', 'pada', 'garis', 'ideologi', 'dan', 'selalu', 'menjadi', 'ba']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>['selamat', 'hut', 'semoga', 'partai', 'setia', 'garis', 'ideologi', 'ba']</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['selamat', 'hut', 'moga', 'partai', 'setia', 'garis', 'ideologi', 'ba']</t>
+          <t>['selamat', 'hari, ulang, tahun', 'semoga', 'partai', 'setia', 'garis', 'ideologi', 'ba']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['selamat', 'hari ulang tahun', 'moga', 'partai', 'setia', 'garis', 'ideologi', 'ba']</t>
         </is>
       </c>
     </row>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21777</v>
+        <v>30355</v>
       </c>
       <c r="C9" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['turut', 'berduka', 'cita', 'untuk', 'seluruh', 'korban', 'jatuhnya', 'pesawat', 'sriwijaya', 'air']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['berduka', 'cita', 'unt', 'korban', 'jatuhnya', 'pesawat', 'sriwijaya', 'air']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'unt', 'korban', 'jatuh', 'pesawat', 'sriwijaya', 'air']</t>
+          <t>['berduka', 'cita', 'korban', 'jatuhnya', 'pesawat', 'sriwijaya', 'air']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['duka', 'cita', 'korban', 'jatuh', 'pesawat', 'sriwijaya', 'air']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21778</v>
+        <v>30356</v>
       </c>
       <c r="C10" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,17 +825,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['rt', 'laporan', 'lengkap', 'fraksi', 'partai, demokrasi, indonesia', 'perjuangan', 'kepada', 'warga', 'daerah, khusus, ibukota', 'jakarta', 'tahun', 'di, sini', 'kamu', 'juga', 'bisa', 'kenalamphubungi', 'wakil', 'rakyat', 'dari']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['laporan', 'lengkap', 'fraksi', 'pdi', 'perjuangan', 'warga', 'dki', 'jakarta', 'thn', 'jg', 'kenalamphubungi', 'wakil', 'rakyat']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['lapor', 'lengkap', 'fraksi', 'pdi', 'juang', 'warga', 'dki', 'jakarta', 'thn', 'jg', 'kenalamphubungi', 'wakil', 'rakyat']</t>
+          <t>['laporan', 'lengkap', 'fraksi', 'partai, demokrasi, indonesia', 'perjuangan', 'warga', 'daerah, khusus, ibukota', 'jakarta', 'di, sini', 'kenalamphubungi', 'wakil', 'rakyat']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['lapor', 'lengkap', 'fraksi', 'partai demokrasi indonesia', 'juang', 'warga', 'daerah khusus ibukota', 'jakarta', 'di sini', 'kenalamphubungi', 'wakil', 'rakyat']</t>
         </is>
       </c>
     </row>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21779</v>
+        <v>30357</v>
       </c>
       <c r="C11" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,17 +866,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['live', 'di', 'youtube', 'panggil', 'saya', 'ahok', 'hari', 'ini', 'jam']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['live', 'youtube', 'panggil', 'btp', 'jam']</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['live', 'youtube', 'panggil', 'btp', 'jam']</t>
+          <t>['live', 'youtube', 'panggil', 'ahok', 'jam']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['live', 'youtube', 'panggil', 'ahok', 'jam']</t>
         </is>
       </c>
     </row>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21780</v>
+        <v>30358</v>
       </c>
       <c r="C12" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,15 +907,20 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['rt', 'website', 'saya', 'sudah', 'bisa', 'diakses', 'segala', 'kegiatan', 'ada', 'di', 'website', 'tersebut', 'termasuk', 'paparan', 'gajitunjangan', 'dan', 'pengeluarannya']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>['website', 'diakses', 'kegiatan', 'website', 'paparan', 'gajitunjangan', 'pengeluarannya']</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>['website', 'akses', 'giat', 'website', 'papar', 'gajitunjangan', 'keluar']</t>
         </is>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21781</v>
+        <v>30359</v>
       </c>
       <c r="C13" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,15 +948,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['rt', 'juga', 'menjawab', 'tuduhan', 'ke', 'saya', 'di', 'salah', 'satu', 'channel', 'youtube', 'bahwa', 'saya', 'menikmati', 'dan', 'mengantongi', 'juta', 'jujur', 'ini', 'sudah', 'memb']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>['tuduhan', 'salah', 'channel', 'youtube', 'menikmati', 'mengantongi', 'juta', 'jujur', 'memb']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['tuduh', 'salah', 'channel', 'youtube', 'nikmat', 'kantong', 'juta', 'jujur', 'memb']</t>
         </is>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>21782</v>
+        <v>30360</v>
       </c>
       <c r="C14" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,17 +989,22 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['rt', 'dipanggil', 'bapak', 'ahok', 'untuk', 'menjelaskan', 'mengenai', 'rumor', 'naik', 'gaji', 'dan', 'tunjangan', 'dewan, perwakilan, rakyat, daerah', 'daerah, khusus, ibukota', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['dipanggil', 'btp', 'rumor', 'gaji', 'tunjangan', 'dprd', 'dki', 'jakarta']</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['panggil', 'btp', 'rumor', 'gaji', 'tunjang', 'dprd', 'dki', 'jakarta']</t>
+          <t>['dipanggil', 'ahok', 'rumor', 'gaji', 'tunjangan', 'dewan, perwakilan, rakyat, daerah', 'daerah, khusus, ibukota', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['panggil', 'ahok', 'rumor', 'gaji', 'tunjang', 'dewan wakil rakyat daerah', 'daerah khusus ibukota', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21783</v>
+        <v>30361</v>
       </c>
       <c r="C15" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,17 +1030,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rt', 'pagi', 'tadi', 'saya', 'di', 'ajak', 'sarapan', 'mie', 'celor', 'khas', 'jambi', 'dan', 'minum, kopi', 'bersama', 'ketua', 'dewan, perwakilan, rakyat, daerah', 'provinsi', 'jambi', 'edi', 'purwanto', 'di', 'warung', 'kok']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['pagi', 'ajak', 'sarapan', 'mie', 'celor', 'khas', 'jambi', 'ngopi', 'ketua', 'dprd', 'provinsi', 'jambi', 'edi', 'purwanto', 'warung', 'ko']</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['pagi', 'ajak', 'sarap', 'mie', 'cor', 'khas', 'jambi', 'ngopi', 'ketua', 'dprd', 'provinsi', 'jambi', 'edi', 'purwanto', 'warung', 'ko']</t>
+          <t>['pagi', 'ajak', 'sarapan', 'mie', 'celor', 'khas', 'jambi', 'minum, kopi', 'ketua', 'dewan, perwakilan, rakyat, daerah', 'provinsi', 'jambi', 'edi', 'purwanto', 'warung']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['pagi', 'ajak', 'sarap', 'mie', 'cor', 'khas', 'jambi', 'minum kopi', 'ketua', 'dewan wakil rakyat daerah', 'provinsi', 'jambi', 'edi', 'purwanto', 'warung']</t>
         </is>
       </c>
     </row>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21784</v>
+        <v>30362</v>
       </c>
       <c r="C16" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,17 +1071,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['pancasila', 'adalah', 'pondasi', 'dalam', 'kehidupan', 'bernegara', 'jika', 'kehidupan', 'bernegara', 'dijalankan', 'dengan', 'dasar', 'nilainilai', 'pak']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['pancasila', 'pondasi', 'kehidupan', 'bernegara', 'kehidupan', 'bernegara', 'dijalankan', 'dasar', 'nilainilai', 'pa']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['pancasila', 'pondasi', 'hidup', 'negara', 'hidup', 'negara', 'jalan', 'dasar', 'nilainilai', 'pa']</t>
+          <t>['pancasila', 'pondasi', 'kehidupan', 'bernegara', 'kehidupan', 'bernegara', 'dijalankan', 'dasar', 'nilainilai']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['pancasila', 'pondasi', 'hidup', 'negara', 'hidup', 'negara', 'jalan', 'dasar', 'nilainilai']</t>
         </is>
       </c>
     </row>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21785</v>
+        <v>30363</v>
       </c>
       <c r="C17" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,17 +1112,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['rt', 'pasca', 'banjir', 'bandang', 'melanda', 'kecamatan', 'cicurug', 'kabupaten', 'sukabumi', 'pada', 'senin', 'malam', 'pertamina', 'memastikan', 'stok', 'lpg', 'tercukupi', 'deh']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['pasca', 'banjir', 'bandang', 'melanda', 'kec', 'cicurug', 'kab', 'sukabumi', 'senin', 'malam', 'pertamina', 'stok', 'lpg', 'tercukupi', 'de']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['pasca', 'banjir', 'bandang', 'landa', 'kec', 'cicurug', 'kab', 'sukabumi', 'senin', 'malam', 'pertamina', 'stok', 'lpg', 'cukup', 'de']</t>
+          <t>['pasca', 'banjir', 'bandang', 'melanda', 'kecamatan', 'cicurug', 'kabupaten', 'sukabumi', 'senin', 'malam', 'pertamina', 'stok', 'lpg', 'tercukupi', 'deh']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['pasca', 'banjir', 'bandang', 'landa', 'camat', 'cicurug', 'kabupaten', 'sukabumi', 'senin', 'malam', 'pertamina', 'stok', 'lpg', 'cukup', 'deh']</t>
         </is>
       </c>
     </row>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>21786</v>
+        <v>30364</v>
       </c>
       <c r="C18" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,17 +1153,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['turut', 'berduka', 'cita', 'yang', 'sedalamdalamnya', 'atas', 'wafatnya', 'sekda', 'daerah, khusus, ibukota', 'jakarta', 'bapak', 'saefullah', 'semoga', 'keluarga', 'yang', 'diti']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['berduka', 'cita', 'sedalamdalamnya', 'wafatnya', 'sekda', 'dki', 'jakarta', 'saefullah', 'semoga', 'keluarga', 'diti']</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'sedalamdalamnya', 'wafat', 'sekda', 'dki', 'jakarta', 'saefullah', 'moga', 'keluarga', 'diti']</t>
+          <t>['berduka', 'cita', 'sedalamdalamnya', 'wafatnya', 'sekda', 'daerah, khusus, ibukota', 'jakarta', 'saefullah', 'semoga', 'keluarga', 'diti']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['duka', 'cita', 'sedalamdalamnya', 'wafat', 'sekda', 'daerah khusus ibukota', 'jakarta', 'saefullah', 'moga', 'keluarga', 'diti']</t>
         </is>
       </c>
     </row>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>21787</v>
+        <v>30365</v>
       </c>
       <c r="C19" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,17 +1194,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['rt', 'dewan', 'perwakilan', 'rakyat', 'daerah', 'dewan, perwakilan, rakyat, daerah', 'provinsi', 'daerah, khusus, ibukota', 'jakarta', 'telah', 'menjalankan', 'amanat', 'konstitusi', 'dengan', 'mengevaluasi', 'lalu']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['dewan', 'perwakilan', 'rakyat', 'daerah', 'dprd', 'provinsi', 'dki', 'jakarta', 'menjalankan', 'amanat', 'konstitusi', 'mengevaluasi']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['dewan', 'wakil', 'rakyat', 'daerah', 'dprd', 'provinsi', 'dki', 'jakarta', 'jalan', 'amanat', 'konstitusi', 'evaluasi']</t>
+          <t>['dewan', 'perwakilan', 'rakyat', 'daerah', 'dewan, perwakilan, rakyat, daerah', 'provinsi', 'daerah, khusus, ibukota', 'jakarta', 'menjalankan', 'amanat', 'konstitusi', 'mengevaluasi']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['dewan', 'wakil', 'rakyat', 'daerah', 'dewan wakil rakyat daerah', 'provinsi', 'daerah khusus ibukota', 'jakarta', 'jalan', 'amanat', 'konstitusi', 'evaluasi']</t>
         </is>
       </c>
     </row>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>21788</v>
+        <v>30366</v>
       </c>
       <c r="C20" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['rt', 'intinya', 'kemarin', 'itu', 'kita', 'mendengar', 'pertanggungjawaban', 'kegiatan', 'yang', 'perlu', 'digarisbawahi', 'paripurna', 'kemarin', 'itu', 'kita', 'mensahkan']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['intinya', 'kmrin', 'mendengar', 'pertanggungjawaban', 'kegiatan', 'digarisbawahi', 'paripurna', 'kmrin', 'mensahkan']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['inti', 'kmrin', 'dengar', 'pertanggungjawaban', 'giat', 'digarisbawahi', 'paripurna', 'kmrin', 'sah']</t>
+          <t>['intinya', 'kemarin', 'mendengar', 'pertanggungjawaban', 'kegiatan', 'digarisbawahi', 'paripurna', 'kemarin', 'mensahkan']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['inti', 'kemarin', 'dengar', 'pertanggungjawaban', 'giat', 'digarisbawahi', 'paripurna', 'kemarin', 'sah']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>21789</v>
+        <v>30367</v>
       </c>
       <c r="C21" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,17 +1276,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['rt', 'ramerame', 'pergi', 'besok', 'akan', 'saya', 'jelaskan', 'kenapa', 'jakarta', 'tidak', 'ikutan', 'agar', 'tidak', 'salah', 'kaprah', 'memahami', 'aturan']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['ramerame', 'walkout', 'besok', 'jakarta', 'ikutan', 'salah', 'kaprah', 'memahami', 'aturan']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['ramerame', 'walkout', 'besok', 'jakarta', 'ikut', 'salah', 'kaprah', 'paham', 'atur']</t>
+          <t>['ramerame', 'pergi', 'besok', 'jakarta', 'ikutan', 'salah', 'kaprah', 'memahami', 'aturan']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['ramerame', 'pergi', 'besok', 'jakarta', 'ikut', 'salah', 'kaprah', 'paham', 'atur']</t>
         </is>
       </c>
     </row>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>21790</v>
+        <v>30368</v>
       </c>
       <c r="C22" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,15 +1317,20 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['rt', 'sambut', 'hari', 'pelanggan', 'nasional', 'pertamina', 'hadirkan', 'promo', 'spesial', 'di', 'bulan', 'september', 'sebagai', 'wujud', 'komitmen', 'pertamina', 'untuk']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>['sambut', 'pelanggan', 'nasional', 'pertamina', 'hadirkan', 'promo', 'spesial', 'september', 'wujud', 'komitmen', 'pertamina']</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>['sambut', 'langgan', 'nasional', 'pertamina', 'hadir', 'promo', 'spesial', 'september', 'wujud', 'komitmen', 'pertamina']</t>
         </is>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21791</v>
+        <v>30369</v>
       </c>
       <c r="C23" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,15 +1358,20 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['mari', 'kita', 'kawal', 'bersama', 'transparansi', 'pertamina', 'dengan', 'melaporkan', 'pelanggaran', 'ke', 'wbs', 'pertamina']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>['mari', 'kawal', 'transparansi', 'pertamina', 'melaporkan', 'pelanggaran', 'wbs', 'pertamina']</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>['mari', 'kawal', 'transparansi', 'pertamina', 'lapor', 'langgar', 'wbs', 'pertamina']</t>
         </is>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>21792</v>
+        <v>30370</v>
       </c>
       <c r="C24" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,17 +1399,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['penyediaan', 'jasa', 'penyaluran', 'bahan, bakar, minyak', 'melalui', 'pipanisasi']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['penyediaan', 'jasa', 'penyaluran', 'bbm', 'pipanisasi']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['sedia', 'jasa', 'salur', 'bbm', 'pipanisasi']</t>
+          <t>['penyediaan', 'jasa', 'penyaluran', 'bahan, bakar, minyak', 'pipanisasi']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['sedia', 'jasa', 'salur', 'bahan bakar minyak', 'pipanisasi']</t>
         </is>
       </c>
     </row>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>21793</v>
+        <v>30371</v>
       </c>
       <c r="C25" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['rt', 'turut', 'mendorong', 'kembangkan', 'ekonomi', 'bangsa', 'pertamina', 'akan', 'memprioritaskan', 'pelaku', 'usaha, mikro, kecil, dan, menengah', 'serta', 'lembaga', 'usaha', 'yang', 'ada', 'di', 'desa']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['mendorong', 'kembangkan', 'ekonomi', 'bangsa', 'pertamina', 'memprioritaskan', 'pelaku', 'umkm', 'lembaga', 'usaha', 'desa']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['dorong', 'kembang', 'ekonomi', 'bangsa', 'pertamina', 'prioritas', 'laku', 'umkm', 'lembaga', 'usaha', 'desa']</t>
+          <t>['mendorong', 'kembangkan', 'ekonomi', 'bangsa', 'pertamina', 'memprioritaskan', 'pelaku', 'usaha, mikro, kecil, dan, menengah', 'lembaga', 'usaha', 'desa']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['dorong', 'kembang', 'ekonomi', 'bangsa', 'pertamina', 'prioritas', 'laku', 'usaha mikro kecil dan tengah', 'lembaga', 'usaha', 'desa']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>21794</v>
+        <v>30372</v>
       </c>
       <c r="C26" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,17 +1481,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['rt', 'raharjo', 'saya', 'pernah', 'dibantu', 'kak', 'sopir', 'saya', 'di', 'dari', 'jakarta', 'di', 'buatkan', 'kartu, indonesia, sehat', 'hanya', 'sehari', 'jadi', 'yang', 'seblumnya', 'ngajukan', 'ke']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['raharjo', 'dibantu', 'kak', 'sopir', 'jakarta', 'buatkan', 'kis', 'sehari', 'seblumnya', 'ngajukan']</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['raharjo', 'bantu', 'kak', 'sopir', 'jakarta', 'buat', 'kis', 'hari', 'seblumnya', 'ngajukan']</t>
+          <t>['raharjo', 'dibantu', 'kak', 'sopir', 'jakarta', 'buatkan', 'kartu, indonesia, sehat', 'sehari', 'seblumnya', 'ngajukan']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['raharjo', 'bantu', 'kak', 'sopir', 'jakarta', 'buat', 'kartu indonesia sehat', 'hari', 'seblumnya', 'ngajukan']</t>
         </is>
       </c>
     </row>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>21795</v>
+        <v>30373</v>
       </c>
       <c r="C27" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,17 +1522,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['rt', 'kita', 'semua', 'harus', 'terus', 'waspada', 'dengan', 'covid', 'jangan', 'lupa', 'pakai', 'masker', 'ya', 'bro', 'karena', 'ini', 'merupakah', 'upaya', 'yang', 'bisa', 'dilak']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['waspada', 'covid', 'lupa', 'pakai', 'masker', 'sob', 'merupakah', 'upaya', 'dilak']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['waspada', 'covid', 'lupa', 'pakai', 'masker', 'sob', 'rupa', 'upaya', 'dilak']</t>
+          <t>['waspada', 'covid', 'lupa', 'pakai', 'masker', 'bro', 'merupakah', 'upaya', 'dilak']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['waspada', 'covid', 'lupa', 'pakai', 'masker', 'bro', 'rupa', 'upaya', 'dilak']</t>
         </is>
       </c>
     </row>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>21796</v>
+        <v>30374</v>
       </c>
       <c r="C28" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,17 +1563,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['ahok', 'bicara', 'arah', 'baru', 'pertamina', 'via']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['btp', 'bicara', 'arah', 'pertamina', 'via']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['btp', 'bicara', 'arah', 'pertamina', 'via']</t>
+          <t>['ahok', 'bicara', 'arah', 'pertamina', 'via']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['ahok', 'bicara', 'arah', 'pertamina', 'via']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>21797</v>
+        <v>30375</v>
       </c>
       <c r="C29" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,15 +1604,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['bicara', 'tentang', 'pertamina', 'bareng', 'insan', 'milenial', 'via']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['bicara', 'pertamina', 'bareng', 'insan', 'milenial', 'via']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['bicara', 'pertamina', 'bareng', 'insan', 'milenial', 'via']</t>
         </is>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>21798</v>
+        <v>30376</v>
       </c>
       <c r="C30" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['good', 'news', 'amp', 'please', 'memilih', 'microlibrary', 'warak', 'kayu', 'terpilih', 'sebagai', 'finalis', 'top', 'dalam', 'kategori', 'libraries', 'di', 'ajang', 'peng']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['good', 'news', 'please', 'vote', 'microlibrary', 'warak', 'kayu', 'terpilih', 'sbg', 'finalis', 'top', 'dlm', 'kategori', 'libraries', 'ajang', 'peng']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['good', 'news', 'please', 'vote', 'microlibrary', 'warak', 'kayu', 'pilih', 'sbg', 'final', 'top', 'dlm', 'kategori', 'libraries', 'ajang', 'peng']</t>
+          <t>['good', 'news', 'please', 'memilih', 'microlibrary', 'warak', 'kayu', 'terpilih', 'finalis', 'top', 'kategori', 'libraries', 'ajang', 'peng']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['good', 'news', 'please', 'pilih', 'microlibrary', 'warak', 'kayu', 'pilih', 'final', 'top', 'kategori', 'libraries', 'ajang', 'peng']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>21799</v>
+        <v>30377</v>
       </c>
       <c r="C31" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,15 +1686,20 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['rt', 'dari', 'sabang', 'sampai', 'merauke', 'pertamina', 'turut', 'hadir', 'menjaga', 'masa', 'depan', 'harapan', 'bangsa', 'apapun', 'mimpimu', 'dan', 'di', 'mana', 'pun', 'kamu']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>['sabang', 'merauke', 'pertamina', 'hadir', 'menjaga', 'harapan', 'bangsa', 'apapun', 'mimpimu']</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>['sabang', 'merauke', 'pertamina', 'hadir', 'jaga', 'harap', 'bangsa', 'apa', 'mimpi']</t>
         </is>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>21800</v>
+        <v>30378</v>
       </c>
       <c r="C32" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,17 +1727,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['rt', 'bicara', 'tentang', 'restrukturisasi', 'apa', 'kata', 'komisaris', 'utama', 'pertamina', 'ahok', 'simak', 'selengkapnya', 'di']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>['bicara', 'restrukturisasi', 'komisaris', 'utama', 'pertamina', 'btp', 'simak', 'selengkapnya']</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['bicara', 'restrukturisasi', 'komisaris', 'utama', 'pertamina', 'btp', 'simak', 'lengkap']</t>
+          <t>['bicara', 'restrukturisasi', 'komisaris', 'utama', 'pertamina', 'ahok', 'simak', 'selengkapnya']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['bicara', 'restrukturisasi', 'komisaris', 'utama', 'pertamina', 'ahok', 'simak', 'lengkap']</t>
         </is>
       </c>
     </row>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>21801</v>
+        <v>30379</v>
       </c>
       <c r="C33" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,15 +1768,20 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'pak', 'dedi']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'dedi']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'dedi']</t>
         </is>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>21802</v>
+        <v>30380</v>
       </c>
       <c r="C34" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,15 +1809,20 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'pak', 'ketua', 'sehat', 'dan', 'bahagia', 'selalu']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'ketua', 'sehat', 'bahagia']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'ketua', 'sehat', 'bahagia']</t>
         </is>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>21803</v>
+        <v>30381</v>
       </c>
       <c r="C35" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -1676,15 +1846,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1695,10 +1870,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>21804</v>
+        <v>30382</v>
       </c>
       <c r="C36" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1712,17 +1887,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['rt', 'pertamina', 'terus', 'memperkuat', 'ketahanan', 'energi', 'nasional', 'fokus', 'dalam', 'mengelola', 'wkwk', 'migas', 'yang', 'diamanahkan', 'kepada', 'pertamina', 'telah']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['pertamina', 'memperkuat', 'ketahanan', 'energi', 'nasional', 'fokus', 'mengelola', 'wk', 'migas', 'diamanahkan', 'pertamina']</t>
-        </is>
-      </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['pertamina', 'kuat', 'tahan', 'energi', 'nasional', 'fokus', 'kelola', 'wk', 'migas', 'amanah', 'pertamina']</t>
+          <t>['pertamina', 'memperkuat', 'ketahanan', 'energi', 'nasional', 'fokus', 'mengelola', 'wkwk', 'migas', 'diamanahkan', 'pertamina']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['pertamina', 'kuat', 'tahan', 'energi', 'nasional', 'fokus', 'kelola', 'wkwk', 'migas', 'amanah', 'pertamina']</t>
         </is>
       </c>
     </row>
@@ -1731,10 +1911,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>21805</v>
+        <v>30383</v>
       </c>
       <c r="C37" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1748,17 +1928,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['untuk', 'warga', 'daerah, khusus, ibukota', 'jakarta', 'saya', 'ucapkan', 'selamat', 'hari, ulang, tahun', 'daerah, khusus, ibukota', 'jakarta', 'ke', 'dengan', 'kondisi', 'saat', 'ini', 'saya', 'berharap', 'warga']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['warga', 'dki', 'jakarta', 'ucapkan', 'selamat', 'hut', 'dki', 'jakarta', 'kondisi', 'berharap', 'warga']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['warga', 'dki', 'jakarta', 'ucap', 'selamat', 'hut', 'dki', 'jakarta', 'kondisi', 'harap', 'warga']</t>
+          <t>['warga', 'daerah, khusus, ibukota', 'jakarta', 'ucapkan', 'selamat', 'hari, ulang, tahun', 'daerah, khusus, ibukota', 'jakarta', 'kondisi', 'berharap', 'warga']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['warga', 'daerah khusus ibukota', 'jakarta', 'ucap', 'selamat', 'hari ulang tahun', 'daerah khusus ibukota', 'jakarta', 'kondisi', 'harap', 'warga']</t>
         </is>
       </c>
     </row>
@@ -1767,10 +1952,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>21806</v>
+        <v>30384</v>
       </c>
       <c r="C38" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1784,15 +1969,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['selamat', 'ulang', 'tahun', 'pak', 'presiden', 'selalu', 'diberikan', 'kesehatan', 'kebahagiaan', 'dan', 'semangat', 'untuk', 'terus', 'mewujudk']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'presiden', 'kesehatan', 'kebahagiaan', 'semangat', 'mewujudk']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'presiden', 'sehat', 'bahagia', 'semangat', 'mewujudk']</t>
         </is>
@@ -1803,10 +1993,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>21807</v>
+        <v>30385</v>
       </c>
       <c r="C39" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1820,15 +2010,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['rt', 'tetap', 'patuhi', 'protokol', 'kesehatan', 'dan', 'jangan', 'lupa', 'kamu', 'juga', 'bisa', 'hubungi', 'pertamina', 'call', 'center', 'untuk', 'energi', 'sampai', 'ke', 'dep']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>['patuhi', 'protokol', 'kesehatan', 'lupa', 'hubungi', 'pertamina', 'call', 'center', 'energi', 'dep']</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>['patuh', 'protokol', 'sehat', 'lupa', 'hubung', 'pertamina', 'call', 'center', 'energi', 'dep']</t>
         </is>
@@ -1839,10 +2034,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>21808</v>
+        <v>30386</v>
       </c>
       <c r="C40" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1856,17 +2051,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['rt', 'rumah, sakit', 'modular', 'covid', 'kedua', 'yang', 'dibangun', 'pertamina', 'telah', 'resmi', 'beroperasi', 'memiliki', 'berbagai', 'fasilitas', 'kesehatan', 'lengkap', 'seba']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>['rs', 'modular', 'covid', 'dibangun', 'pertamina', 'resmi', 'beroperasi', 'memiliki', 'fasilitas', 'kesehatan', 'lengkap', 'seba']</t>
-        </is>
-      </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['rs', 'modular', 'covid', 'bangun', 'pertamina', 'resmi', 'operasi', 'milik', 'fasilitas', 'sehat', 'lengkap', 'seba']</t>
+          <t>['rumah, sakit', 'modular', 'covid', 'dibangun', 'pertamina', 'resmi', 'beroperasi', 'memiliki', 'fasilitas', 'kesehatan', 'lengkap', 'seba']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['rumah sakit', 'modular', 'covid', 'bangun', 'pertamina', 'resmi', 'operasi', 'milik', 'fasilitas', 'sehat', 'lengkap', 'seba']</t>
         </is>
       </c>
     </row>
@@ -1875,10 +2075,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>21809</v>
+        <v>30387</v>
       </c>
       <c r="C41" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1892,15 +2092,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['masyarakat', 'bisa', 'akses', 'beragam', 'informasi', 'soal', 'pertamina', 'lewat', 'website']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>['masyarakat', 'akses', 'beragam', 'informasi', 'pertamina', 'website']</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>['masyarakat', 'akses', 'agam', 'informasi', 'pertamina', 'website']</t>
         </is>
@@ -1911,10 +2116,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>21810</v>
+        <v>30388</v>
       </c>
       <c r="C42" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1928,15 +2133,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['resmi', 'dibuka', 'rspp', 'extension', 'dukung', 'transisi', 'new', 'normal']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>['resmi', 'dibuka', 'rspp', 'extension', 'dukung', 'transisi', 'new', 'normal']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>['resmi', 'buka', 'rspp', 'extension', 'dukung', 'transisi', 'new', 'normal']</t>
         </is>
@@ -1947,10 +2157,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>21811</v>
+        <v>30389</v>
       </c>
       <c r="C43" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1964,17 +2174,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['bulan', 'juni', 'bulan', 'istimewa', 'selain', 'hari', 'lahirnya', 'pancasila', 'juga', 'merupakan', 'bulan', 'lahirnya', 'proklamator', 'ri', 'insinyur', 'soekarno']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['juni', 'istimewa', 'lahirnya', 'pancasila', 'jg', 'lahirnya', 'proklamator', 'ri', 'ir', 'soekarno']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['juni', 'istimewa', 'lahir', 'pancasila', 'jg', 'lahir', 'proklamator', 'ri', 'ir', 'soekarno']</t>
+          <t>['juni', 'istimewa', 'lahirnya', 'pancasila', 'lahirnya', 'proklamator', 'ri', 'insinyur', 'soekarno']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['juni', 'istimewa', 'lahir', 'pancasila', 'lahir', 'proklamator', 'ri', 'insinyur', 'soekarno']</t>
         </is>
       </c>
     </row>
@@ -1983,10 +2198,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>21812</v>
+        <v>30390</v>
       </c>
       <c r="C44" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2000,17 +2215,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['rt', 'pertamina', 'telah', 'menyiapkan', 'penerapan', 'skema', 'pelayanan', 'di', 'spbu', 'sesuai', 'arahan', 'menteri', 'badan, usaha, milik, negara', 'simak', 'penjelasan', 'sop', 'new']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['pertamina', 'penerapan', 'skema', 'pelayanan', 'spbu', 'sesuai', 'arahan', 'menteri', 'bumn', 'simak', 'penjelasan', 'sop', 'new']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['pertamina', 'terap', 'skema', 'layan', 'spbu', 'sesuai', 'arah', 'menteri', 'bumn', 'simak', 'jelas', 'sop', 'new']</t>
+          <t>['pertamina', 'penerapan', 'skema', 'pelayanan', 'spbu', 'sesuai', 'arahan', 'menteri', 'badan, usaha, milik, negara', 'simak', 'penjelasan', 'sop', 'new']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['pertamina', 'terap', 'skema', 'layan', 'spbu', 'sesuai', 'arah', 'menteri', 'badan usaha milik negara', 'simak', 'jelas', 'sop', 'new']</t>
         </is>
       </c>
     </row>
@@ -2019,10 +2239,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>21813</v>
+        <v>30391</v>
       </c>
       <c r="C45" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2036,15 +2256,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'lahir', 'pancasila', 'pancasila', 'adalah', 'pondasi', 'jika', 'kehidupan', 'bernegara', 'dijalankan', 'dengan', 'dasar', 'nilainilai']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>['selamat', 'lahir', 'pancasila', 'pancasila', 'pondasi', 'kehidupan', 'bernegara', 'dijalankan', 'dasar', 'nilainilai']</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>['selamat', 'lahir', 'pancasila', 'pancasila', 'pondasi', 'hidup', 'negara', 'jalan', 'dasar', 'nilainilai']</t>
         </is>
@@ -2055,10 +2280,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>21814</v>
+        <v>30392</v>
       </c>
       <c r="C46" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2072,15 +2297,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['selamat', 'ulang', 'tahun', 'buya', 'syafii', 'maarif', 'semoga', 'selalu', 'diberikan', 'kesehatan', 'keberkahan', 'panjang', 'umur']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'buya', 'syafii', 'maarif', 'semoga', 'kesehatan', 'keberkahan', 'umur']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'buya', 'syafii', 'maarif', 'moga', 'sehat', 'berkah', 'umur']</t>
         </is>
@@ -2091,10 +2321,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>21815</v>
+        <v>30393</v>
       </c>
       <c r="C47" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2108,15 +2338,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['rt', 'inilah', 'protokol', 'kesehatan', 'pekerja', 'pertamina', 'saat', 'melakukan', 'work', 'from', 'office', 'seperti', 'apa', 'ya', 'yuk', 'kita', 'simak', 'dalam', 'video', 'ber']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['protokol', 'kesehatan', 'pekerja', 'pertamina', 'work', 'from', 'office', 'yuk', 'simak', 'video', 'ber']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['protokol', 'sehat', 'kerja', 'pertamina', 'work', 'from', 'office', 'yuk', 'simak', 'video', 'ber']</t>
         </is>
@@ -2127,10 +2362,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21816</v>
+        <v>30394</v>
       </c>
       <c r="C48" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2144,15 +2379,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['selamat', 'merayakan', 'hari', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'dan', 'batin']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>['selamat', 'merayakan', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'batin']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'raya', 'idul', 'fitri', 'mohon', 'maaf', 'lahir', 'batin']</t>
         </is>
@@ -2163,10 +2403,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>21817</v>
+        <v>30395</v>
       </c>
       <c r="C49" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2180,15 +2420,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['pembangunan', 'pertashop', 'bertujuan', 'memperluas', 'penyediaan', 'energi', 'hingga', 'pedesaan', 'khususnya', 'bagi', 'daerah', 'yang', 'belum', 'terja']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['pembangunan', 'pertashop', 'bertujuan', 'memperluas', 'penyediaan', 'energi', 'pedesaan', 'daerah', 'terja']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['bangun', 'pertashop', 'tuju', 'luas', 'sedia', 'energi', 'desa', 'daerah', 'terja']</t>
         </is>
@@ -2199,10 +2444,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>21818</v>
+        <v>30396</v>
       </c>
       <c r="C50" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2216,15 +2461,20 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['selamat', 'memperingati', 'kenaikan', 'yesus', 'kristus', 'semoga', 'kasihnya', 'menjadi', 'teladan', 'bagi', 'kita', 'semua']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>['selamat', 'memperingati', 'kenaikan', 'yesus', 'kristus', 'semoga', 'kasihnya', 'teladan']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>['selamat', 'ingat', 'naik', 'yesus', 'kristus', 'moga', 'kasih', 'teladan']</t>
         </is>
@@ -2235,10 +2485,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>21819</v>
+        <v>30397</v>
       </c>
       <c r="C51" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2252,15 +2502,20 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['rt', 'selamat', 'hari', 'kebangkitan', 'nasional', 'mari', 'dengan', 'optimisme', 'yang', 'tiada', 'henti', 'bersamasama', 'kita', 'bangkitkan', 'energi', 'baru']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>['selamat', 'kebangkitan', 'nasional', 'mari', 'optimisme', 'tiada', 'henti', 'bersamasama', 'bangkitkan', 'energi']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>['selamat', 'bangkit', 'nasional', 'mari', 'optimisme', 'tiada', 'henti', 'bersamasama', 'bangkit', 'energi']</t>
         </is>
@@ -2271,10 +2526,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>21820</v>
+        <v>30398</v>
       </c>
       <c r="C52" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2288,15 +2543,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['selamat', 'hari', 'raya', 'waisak', 'be', 'bagi', 'umat', 'buddha', 'mari', 'berdoa', 'untuk', 'kedamaian', 'dan', 'keselarasan', 'serta', 'kebahagi']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'waisak', 'be', 'umat', 'buddha', 'mari', 'berdoa', 'kedamaian', 'keselarasan', 'kebahagi']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>['selamat', 'raya', 'waisak', 'be', 'umat', 'buddha', 'mari', 'doa', 'damai', 'selaras', 'kebahagi']</t>
         </is>
@@ -2307,10 +2567,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>21821</v>
+        <v>30399</v>
       </c>
       <c r="C53" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2324,17 +2584,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['turut', 'berduka', 'cita', 'atas', 'berpulangnya', 'mas', 'didi', 'kempot', 'saya', 'ingat', 'sewaktu', 'kampanye', 'pilihan, kepala, daerah', 'mas', 'didi', 'membuat', 'bo']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['berduka', 'cita', 'berpulangnya', 'mas', 'didi', 'kempot', 'kampanye', 'pilkada', 'mas', 'didi', 'bo']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['duka', 'cita', 'pulang', 'mas', 'didi', 'kempot', 'kampanye', 'pilkada', 'mas', 'didi', 'bo']</t>
+          <t>['berduka', 'cita', 'berpulangnya', 'mas', 'didi', 'kempot', 'kampanye', 'pilihan, kepala, daerah', 'mas', 'didi', 'bo']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['duka', 'cita', 'pulang', 'mas', 'didi', 'kempot', 'kampanye', 'pilih kepala daerah', 'mas', 'didi', 'bo']</t>
         </is>
       </c>
     </row>
@@ -2343,10 +2608,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>21822</v>
+        <v>30400</v>
       </c>
       <c r="C54" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2360,17 +2625,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['rt', 'rice', 'bowl', 'hari', 'ini', 'dimulai', 'untuk', 'warga', 'kembangan', 'selatan', 'berisi', 'nasi', 'sayur', 'buncis', 'ayam', 'goreng', 'dan', 'telur', 'dadar', 'saya', 'juga', 'memaka']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['rice', 'bowl', 'warga', 'kembangan', 'selatan', 'berisi', 'nasi', 'sayur', 'buncis', 'ayam', 'goreng', 'telur', 'dadar', 'jg', 'memaka']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['rice', 'bowl', 'warga', 'kembang', 'selatan', 'isi', 'nasi', 'sayur', 'buncis', 'ayam', 'goreng', 'telur', 'dadar', 'jg', 'maka']</t>
+          <t>['rice', 'bowl', 'warga', 'kembangan', 'selatan', 'berisi', 'nasi', 'sayur', 'buncis', 'ayam', 'goreng', 'telur', 'dadar', 'memaka']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['rice', 'bowl', 'warga', 'kembang', 'selatan', 'isi', 'nasi', 'sayur', 'buncis', 'ayam', 'goreng', 'telur', 'dadar', 'maka']</t>
         </is>
       </c>
     </row>
@@ -2379,10 +2649,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>21823</v>
+        <v>30401</v>
       </c>
       <c r="C55" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2396,17 +2666,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['rt', 'dapatkan', 'cashback', 'maks', 'rupiah', 'bagi', 'pengemudi', 'angkutan', 'kota', 'pertama', 'perhari', 'setiap', 'pembelian']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['dapatkan', 'cashback', 'maks', 'rp', 'pengemudi', 'angkutan', 'kota', 'perhari', 'pembelian']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['dapat', 'cashback', 'maks', 'rp', 'kemudi', 'angkut', 'kota', 'hari', 'beli']</t>
+          <t>['dapatkan', 'cashback', 'maks', 'rupiah', 'pengemudi', 'angkutan', 'kota', 'perhari', 'pembelian']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['dapat', 'cashback', 'maks', 'rupiah', 'kemudi', 'angkut', 'kota', 'hari', 'beli']</t>
         </is>
       </c>
     </row>
@@ -2415,10 +2690,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>21824</v>
+        <v>30402</v>
       </c>
       <c r="C56" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2432,17 +2707,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['rt', 'sobat', 'minggu', 'lalu', 'sudah', 'ada', 'kolaborasi', 'yang', 'keren', 'dari', 'afgan', 'dan', 'andien', 'di', 'konser', 'digital', 'pertashow', 'episo']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>['sobat', 'minggu', 'udah', 'kolaborasi', 'keren', 'afgan', 'andien', 'konser', 'digital', 'pertashow', 'episo']</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['sobat', 'minggu', 'udah', 'kolaborasi', 'keren', 'afgan', 'andien', 'konser', 'digital', 'pertashow', 'episo']</t>
+          <t>['sobat', 'minggu', 'kolaborasi', 'keren', 'afgan', 'andien', 'konser', 'digital', 'pertashow', 'episo']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['sobat', 'minggu', 'kolaborasi', 'keren', 'afgan', 'andien', 'konser', 'digital', 'pertashow', 'episo']</t>
         </is>
       </c>
     </row>
@@ -2451,10 +2731,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>21825</v>
+        <v>30403</v>
       </c>
       <c r="C57" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2468,15 +2748,20 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['solusi', 'qlue', 'untuk', 'menekan', 'penyebaran', 'covid', 'di', 'indonesia', 'via']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>['solusi', 'qlue', 'menekan', 'penyebaran', 'covid', 'indonesia', 'via']</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>['solusi', 'qlue', 'tekan', 'sebar', 'covid', 'indonesia', 'via']</t>
         </is>
@@ -2487,10 +2772,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>21826</v>
+        <v>30404</v>
       </c>
       <c r="C58" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2504,17 +2789,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'seluruh', 'umat', 'islam', 'semoga', 'bulan', 'ramadan', 'ini', 'memberi', 'berkah', 'bagi', 'kita', 'semua']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'umat', 'islam', 'semoga', 'ramadhan', 'berkah']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['selamat', 'tunai', 'ibadah', 'puasa', 'umat', 'islam', 'moga', 'ramadhan', 'berkah']</t>
+          <t>['selamat', 'menunaikan', 'ibadah', 'puasa', 'umat', 'islam', 'semoga', 'ramadan', 'berkah']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['selamat', 'tunai', 'ibadah', 'puasa', 'umat', 'islam', 'moga', 'ramadan', 'berkah']</t>
         </is>
       </c>
     </row>
@@ -2523,10 +2813,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>21827</v>
+        <v>30405</v>
       </c>
       <c r="C59" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2540,15 +2830,20 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['pertashow', 'april', 'via']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>['pertashow', 'april', 'via']</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>['pertashow', 'april', 'via']</t>
         </is>
@@ -2559,10 +2854,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>21828</v>
+        <v>30406</v>
       </c>
       <c r="C60" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2576,15 +2871,20 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['di', 'situasi', 'seperti', 'saat', 'ini', 'saya', 'rasa', 'menjadi', 'relevan', 'jika', 'mengingatkutipan', 'kalimat', 'beliau', 'yang', 'terkenal', 'sehabi']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>['situasi', 'relevan', 'mengingatkutipan', 'kalimat', 'beliau', 'terkenal', 'sehabi']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>['situasi', 'relevan', 'mengingatkutipan', 'kalimat', 'beliau', 'kenal', 'sehabi']</t>
         </is>
@@ -2595,10 +2895,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>21829</v>
+        <v>30407</v>
       </c>
       <c r="C61" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2612,17 +2912,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['rt', 'yuk', 'menonton', 'konser', 'digital', 'di', 'aplikasi', 'bareng', 'reza', 'di', 'pertasho']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>['yuk', 'nonton', 'konser', 'digital', 'aplikasi', 'bareng', 'reza', 'pertasho']</t>
-        </is>
-      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['yuk', 'nonton', 'konser', 'digital', 'aplikasi', 'bareng', 'reza', 'pertasho']</t>
+          <t>['yuk', 'menonton', 'konser', 'digital', 'aplikasi', 'bareng', 'reza', 'pertasho']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['yuk', 'tonton', 'konser', 'digital', 'aplikasi', 'bareng', 'reza', 'pertasho']</t>
         </is>
       </c>
     </row>
@@ -2631,10 +2936,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>21830</v>
+        <v>30408</v>
       </c>
       <c r="C62" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2648,17 +2953,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['rt', 'dewan, perwakilan, daerah', 'perjuangan', 'daerah, khusus, ibukota', 'jakarta', 'membuka', 'dapur', 'umum', 'di', 'kantor', 'dewan, perwakilan, daerah', 'jalan', 'tebet', 'raya', 'no', 'jaksel', 'selain', 'makanan', 'juga', 'diberi', 'hand']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>['dpd', 'perjuangan', 'dki', 'jakarta', 'membuka', 'dapur', 'kantor', 'dpd', 'jl', 'tebet', 'raya', 'no', 'jaksel', 'makanan', 'hand']</t>
-        </is>
-      </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['dpd', 'juang', 'dki', 'jakarta', 'buka', 'dapur', 'kantor', 'dpd', 'jl', 'tebet', 'raya', 'no', 'jaksel', 'makan', 'hand']</t>
+          <t>['dewan, perwakilan, daerah', 'perjuangan', 'daerah, khusus, ibukota', 'jakarta', 'membuka', 'dapur', 'kantor', 'dewan, perwakilan, daerah', 'jalan', 'tebet', 'raya', 'no', 'jaksel', 'makanan', 'hand']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['dewan wakil daerah', 'juang', 'daerah khusus ibukota', 'jakarta', 'buka', 'dapur', 'kantor', 'dewan wakil daerah', 'jalan', 'tebet', 'raya', 'no', 'jaksel', 'makan', 'hand']</t>
         </is>
       </c>
     </row>
@@ -2667,10 +2977,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>21831</v>
+        <v>30409</v>
       </c>
       <c r="C63" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2684,17 +2994,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['rt', 'mewakili', 'ahok', 'amp', 'ahok', 'foundation', 'untuk', 'menyalurkan', 'bantuan', 'apd', 'kepada', 'tenaga', 'medis', 'di', 'rsud', 'cilincing', 'jakarta', 'utara', 'rsu', 'united, kingdom']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['mewakili', 'btp', 'btp', 'foundation', 'menyalurkan', 'bantuan', 'apd', 'tenaga', 'medis', 'rsud', 'cilincing', 'jakarta', 'utara', 'rsu', 'uk']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['wakil', 'btp', 'btp', 'foundation', 'salur', 'bantu', 'apd', 'tenaga', 'medis', 'rsud', 'cilincing', 'jakarta', 'utara', 'rsu', 'uk']</t>
+          <t>['mewakili', 'ahok', 'ahok', 'foundation', 'menyalurkan', 'bantuan', 'apd', 'tenaga', 'medis', 'rsud', 'cilincing', 'jakarta', 'utara', 'rsu', 'united, kingdom']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['wakil', 'ahok', 'ahok', 'foundation', 'salur', 'bantu', 'apd', 'tenaga', 'medis', 'rsud', 'cilincing', 'jakarta', 'utara', 'rsu', 'united kingdom']</t>
         </is>
       </c>
     </row>
@@ -2703,10 +3018,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>21832</v>
+        <v>30410</v>
       </c>
       <c r="C64" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2720,15 +3035,20 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['mendukung', 'pemerintah', 'dalam', 'penanganan', 'wabah', 'covid', 'turut', 'berpartisipasi', 'aktif', 'dengan', 'menyalurkan', 'bantu']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>['mendukung', 'pemerintah', 'penanganan', 'wabah', 'covid', 'berpartisipasi', 'aktif', 'menyalurkan', 'bantu']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>['dukung', 'perintah', 'tangan', 'wabah', 'covid', 'partisipasi', 'aktif', 'salur', 'bantu']</t>
         </is>
@@ -2739,10 +3059,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>21833</v>
+        <v>30411</v>
       </c>
       <c r="C65" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2756,17 +3076,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>['ahok', 'bosan', 'wfh', 'lebih', 'enak', 'daripada', 'di', 'markas, komando', 'brigade, mobil', 'via']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>['ahok', 'bosen', 'wfh', 'enak', 'mako', 'brimob', 'via']</t>
-        </is>
-      </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['ahok', 'bosen', 'wfh', 'enak', 'mako', 'brimob', 'via']</t>
+          <t>['ahok', 'bosan', 'wfh', 'enak', 'markas, komando', 'brigade, mobil', 'via']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['ahok', 'bosan', 'wfh', 'enak', 'markas komando', 'brigade mobil', 'via']</t>
         </is>
       </c>
     </row>
@@ -2775,10 +3100,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>21834</v>
+        <v>30412</v>
       </c>
       <c r="C66" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2792,15 +3117,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['kita', 'harus', 'melindungi', 'petugas', 'medis', 'yang', 'saat', 'ini', 'mempertaruhkan', 'nyawa', 'di', 'garda', 'depan', 'ayo', 'kita', 'ikut', 'berdonasi', 'di']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['melindungi', 'petugas', 'medis', 'mempertaruhkan', 'nyawa', 'garda', 'ayo', 'berdonasi']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>['lindung', 'tugas', 'medis', 'taruh', 'nyawa', 'garda', 'ayo', 'donasi']</t>
         </is>
@@ -2811,10 +3141,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>21835</v>
+        <v>30413</v>
       </c>
       <c r="C67" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2828,17 +3158,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['rt', 'pertamina', 'bangga', 'sebagai', 'badan, usaha, milik, negara', 'dengan', 'energi', 'yang', 'tak', 'berhenti', 'pertamina', 'menjahit', 'asa', 'dari', 'setiap', 'ujung', 'negeri', 'menyapa', 'mas']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['pertamina', 'bangga', 'bumn', 'energi', 'berhenti', 'pertamina', 'menjahit', 'asa', 'ujung', 'negeri', 'menyapa', 'mas']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['pertamina', 'bangga', 'bumn', 'energi', 'henti', 'pertamina', 'jahit', 'asa', 'ujung', 'negeri', 'sapa', 'mas']</t>
+          <t>['pertamina', 'bangga', 'badan, usaha, milik, negara', 'energi', 'berhenti', 'pertamina', 'menjahit', 'asa', 'ujung', 'negeri', 'menyapa', 'mas']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['pertamina', 'bangga', 'badan usaha milik negara', 'energi', 'henti', 'pertamina', 'jahit', 'asa', 'ujung', 'negeri', 'sapa', 'mas']</t>
         </is>
       </c>
     </row>
@@ -2847,10 +3182,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>21836</v>
+        <v>30414</v>
       </c>
       <c r="C68" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2864,17 +3199,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['untuk', 'sobat', 'rider', 'ojek', 'online', 'dapatkan', 'cashback', 'maksimal', 'rupiah', 'bagi', 'pengendara', 'ojek', 'online', 'perhari']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['unt', 'sobat', 'rider', 'ojek', 'online', 'dapatkan', 'cashback', 'maksimal', 'rp', 'pengendara', 'ojek', 'online', 'perhari']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['unt', 'sobat', 'rider', 'ojek', 'online', 'dapat', 'cashback', 'maksimal', 'rp', 'kendara', 'ojek', 'online', 'hari']</t>
+          <t>['sobat', 'rider', 'ojek', 'online', 'dapatkan', 'cashback', 'maksimal', 'rupiah', 'pengendara', 'ojek', 'online', 'perhari']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['sobat', 'rider', 'ojek', 'online', 'dapat', 'cashback', 'maksimal', 'rupiah', 'kendara', 'ojek', 'online', 'hari']</t>
         </is>
       </c>
     </row>
@@ -2883,10 +3223,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>21837</v>
+        <v>30415</v>
       </c>
       <c r="C69" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2900,15 +3240,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['selamat', 'jalan', 'salah', 'satu', 'musisi', 'terbaik', 'yang', 'dimiliki', 'oleh', 'indonesia', 'rest', 'in', 'peace']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>['selamat', 'jalan', 'salah', 'musisi', 'terbaik', 'dimiliki', 'indonesia', 'rest', 'in', 'peace']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>['selamat', 'jalan', 'salah', 'musisi', 'baik', 'milik', 'indonesia', 'rest', 'in', 'peace']</t>
         </is>
@@ -2919,10 +3264,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>21838</v>
+        <v>30416</v>
       </c>
       <c r="C70" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2936,15 +3281,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['ayo', 'kita', 'bergerak', 'bersama', 'tiga', 'langkah', 'mudah', 'untuk', 'membantu', 'indonesia', 'melawan', 'covid']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>['ayo', 'bergerak', 'langkah', 'mudah', 'membantu', 'indonesia', 'melawan', 'covid']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>['ayo', 'gerak', 'langkah', 'mudah', 'bantu', 'indonesia', 'lawan', 'covid']</t>
         </is>
@@ -2955,10 +3305,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>21839</v>
+        <v>30417</v>
       </c>
       <c r="C71" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2972,15 +3322,20 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['turut', 'berduka', 'cita', 'atas', 'meninggalnya', 'ibu', 'sujiatmi', 'notomiharjo', 'ibunda', 'dari', 'bapak', 'presiden', 'semoga', 'mendapatk']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>['berduka', 'cita', 'meninggalnya', 'sujiatmi', 'notomiharjo', 'ibunda', 'presiden', 'semoga', 'mendapatk']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>['duka', 'cita', 'tinggal', 'sujiatmi', 'notomiharjo', 'ibunda', 'presiden', 'moga', 'mendapatk']</t>
         </is>
@@ -2991,10 +3346,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>21840</v>
+        <v>30418</v>
       </c>
       <c r="C72" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3008,17 +3363,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['pertamina', 'delivery', 'service', 'untuk', 'membantu', 'seluruh', 'aktivitas', 'kamu', 'selama', 'work', 'from', 'home']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['pertamina', 'delivery', 'service', 'unt', 'membantu', 'aktivitas', 'work', 'from', 'home']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['pertamina', 'delivery', 'service', 'unt', 'bantu', 'aktivitas', 'work', 'from', 'home']</t>
+          <t>['pertamina', 'delivery', 'service', 'membantu', 'aktivitas', 'work', 'from', 'home']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['pertamina', 'delivery', 'service', 'bantu', 'aktivitas', 'work', 'from', 'home']</t>
         </is>
       </c>
     </row>
@@ -3027,10 +3387,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>21841</v>
+        <v>30419</v>
       </c>
       <c r="C73" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3044,15 +3404,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['rt', 'tompi', 'semua', 'donasi', 'akan', 'dipergunakan', 'untuk', 'penyediaan', 'alat', 'pelindung', 'diri', 'yang', 'ideal', 'dan', 'makanan', 'sehat', 'untuk', 'tim', 'medis', 'yang', 'sedang']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['tompi', 'donasi', 'penyediaan', 'alat', 'pelindung', 'ideal', 'makanan', 'sehat', 'tim', 'medis']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['tompi', 'donasi', 'sedia', 'alat', 'lindung', 'ideal', 'makan', 'sehat', 'tim', 'medis']</t>
         </is>
@@ -3063,10 +3428,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>21842</v>
+        <v>30420</v>
       </c>
       <c r="C74" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3080,15 +3445,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'dan', 'tetap', 'jaga', 'kesehatan', 'bersama', 'kita', 'bisa', 'lewati', 'ini', 'semua']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'jaga', 'kesehatan', 'lewati']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'jaga', 'sehat', 'lewat']</t>
         </is>
@@ -3099,10 +3469,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21843</v>
+        <v>30421</v>
       </c>
       <c r="C75" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3116,17 +3486,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['rumah, sakit', 'pertamina', 'jaya', 'jadi', 'rumah', 'sakit', 'khusus', 'penanganan', 'covid', 'mari', 'kita', 'memperkuat', 'sistem', 'kekebalan', 'tubuh', 'dengan']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['rs', 'pertamina', 'jaya', 'rumah', 'sakit', 'khusus', 'penanganan', 'covid', 'mari', 'memperkuat', 'sistem', 'kekebalan', 'tubuh']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['rs', 'pertamina', 'jaya', 'rumah', 'sakit', 'khusus', 'tangan', 'covid', 'mari', 'kuat', 'sistem', 'kebal', 'tubuh']</t>
+          <t>['rumah, sakit', 'pertamina', 'jaya', 'rumah', 'sakit', 'khusus', 'penanganan', 'covid', 'mari', 'memperkuat', 'sistem', 'kekebalan', 'tubuh']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['rumah sakit', 'pertamina', 'jaya', 'rumah', 'sakit', 'khusus', 'tangan', 'covid', 'mari', 'kuat', 'sistem', 'kebal', 'tubuh']</t>
         </is>
       </c>
     </row>
@@ -3135,10 +3510,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>21844</v>
+        <v>30422</v>
       </c>
       <c r="C76" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3152,17 +3527,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['siaga', 'covid', 'pertamina', 'pastikan', 'pelayanan', 'dan', 'pasokan', 'bahan, bakar, minyak', 'amp', 'lpg', 'aman']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['siaga', 'covid', 'pertamina', 'pastikan', 'pelayanan', 'pasokan', 'bbm', 'lpg', 'aman']</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['siaga', 'covid', 'pertamina', 'pasti', 'layan', 'pasok', 'bbm', 'lpg', 'aman']</t>
+          <t>['siaga', 'covid', 'pertamina', 'pastikan', 'pelayanan', 'pasokan', 'bahan, bakar, minyak', 'lpg', 'aman']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['siaga', 'covid', 'pertamina', 'pasti', 'layan', 'pasok', 'bahan bakar minyak', 'lpg', 'aman']</t>
         </is>
       </c>
     </row>
@@ -3171,10 +3551,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>21845</v>
+        <v>30423</v>
       </c>
       <c r="C77" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -3188,17 +3568,22 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>['mari', 'bersamasama', 'kawal', 'pertamina', 'menjadi', 'badan, usaha, milik, negara', 'terpercaya', 'dan', 'bersih', 'apabila', 'anda', 'menemukan', 'praktikpraktik', 'ilegal']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>['mari', 'bersamasama', 'kawal', 'pertamina', 'bumn', 'terpercaya', 'bersih', 'menemukan', 'praktikpraktik', 'ilegal']</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['mari', 'bersamasama', 'kawal', 'pertamina', 'bumn', 'percaya', 'bersih', 'temu', 'praktikpraktik', 'ilegal']</t>
+          <t>['mari', 'bersamasama', 'kawal', 'pertamina', 'badan, usaha, milik, negara', 'terpercaya', 'bersih', 'menemukan', 'praktikpraktik', 'ilegal']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['mari', 'bersamasama', 'kawal', 'pertamina', 'badan usaha milik negara', 'percaya', 'bersih', 'temu', 'praktikpraktik', 'ilegal']</t>
         </is>
       </c>
     </row>
@@ -3207,10 +3592,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>21846</v>
+        <v>30424</v>
       </c>
       <c r="C78" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3224,17 +3609,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>['bagi', 'anda', 'yang', 'berminat', 'melakukan', 'pembelian', 'produk', 'petrokimia', 'pertamina', 'secara', 'business', 'to', 'business', 'silakan', 'kunju']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['berminat', 'pembelian', 'produk', 'petrokimia', 'pertamina', 'business', 'to', 'business', 'silahkan', 'kunju']</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['minat', 'beli', 'produk', 'petrokimia', 'pertamina', 'business', 'to', 'business', 'silah', 'kunju']</t>
+          <t>['berminat', 'pembelian', 'produk', 'petrokimia', 'pertamina', 'business', 'to', 'business', 'silakan', 'kunju']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['minat', 'beli', 'produk', 'petrokimia', 'pertamina', 'business', 'to', 'business', 'sila', 'kunju']</t>
         </is>
       </c>
     </row>
@@ -3243,10 +3633,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>21847</v>
+        <v>30425</v>
       </c>
       <c r="C79" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3260,17 +3650,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>['rt', 'pertamina', 'amp', 'petronas', 'tanda, tangani', 'perjanjian', 'framework', 'jual', 'beli', 'minyak', 'mentah', 'tahun', 'penandatanganan', 'dilakukan', 'oleh', 'sama']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>['pertamina', 'petronas', 'tandatangani', 'perjanjian', 'framework', 'jual', 'beli', 'minyak', 'mentah', 'penandatanganan', 'ma']</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['pertamina', 'petronas', 'tandatangani', 'janji', 'framework', 'jual', 'beli', 'minyak', 'mentah', 'penandatanganan', 'ma']</t>
+          <t>['pertamina', 'petronas', 'tanda, tangani', 'perjanjian', 'framework', 'jual', 'beli', 'minyak', 'mentah', 'penandatanganan']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['pertamina', 'petronas', 'tanda tangan', 'janji', 'framework', 'jual', 'beli', 'minyak', 'mentah', 'penandatanganan']</t>
         </is>
       </c>
     </row>
@@ -3279,10 +3674,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>21848</v>
+        <v>30426</v>
       </c>
       <c r="C80" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3296,15 +3691,20 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
+          <t>['terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>['terima', 'kasih']</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>['terima', 'kasih']</t>
         </is>
@@ -3315,10 +3715,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>21849</v>
+        <v>30427</v>
       </c>
       <c r="C81" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3332,17 +3732,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
+          <t>['launching', 'buku', 'ahok']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>['launching', 'buku', 'btp']</t>
-        </is>
-      </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['launching', 'buku', 'btp']</t>
+          <t>['launching', 'buku', 'ahok']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['launching', 'buku', 'ahok']</t>
         </is>
       </c>
     </row>
@@ -3351,10 +3756,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>21850</v>
+        <v>30428</v>
       </c>
       <c r="C82" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3368,17 +3773,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
+          <t>['launching', 'buku', 'ahok']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>['launching', 'buku', 'btp']</t>
-        </is>
-      </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['launching', 'buku', 'btp']</t>
+          <t>['launching', 'buku', 'ahok']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['launching', 'buku', 'ahok']</t>
         </is>
       </c>
     </row>
@@ -3387,10 +3797,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>21851</v>
+        <v>30429</v>
       </c>
       <c r="C83" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3404,15 +3814,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>['terima', 'kasih', 'atas', 'dukungannya', 'karena', 'keterbatasan', 'tempat', 'tidak', 'semua', 'bisa', 'kami', 'undang', 'namun', 'kami', 'tetap', 'menyediak']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'dukungannya', 'keterbatasan', 'undang', 'menyediak']</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['terima', 'kasih', 'dukung', 'batas', 'undang', 'menyediak']</t>
         </is>
@@ -3423,10 +3838,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>21852</v>
+        <v>30430</v>
       </c>
       <c r="C84" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3440,15 +3855,20 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
+          <t>['dengan', 'keterbukaan', 'informasi', 'ini', 'kami', 'berharap', 'mendapatkan', 'masukan', 'dan', 'saran', 'terbaik', 'dari', 'publik', 'untuk', 'informasi']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>['keterbukaan', 'informasi', 'berharap', 'masukan', 'saran', 'terbaik', 'publik', 'informasi']</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>['buka', 'informasi', 'harap', 'masuk', 'saran', 'baik', 'publik', 'informasi']</t>
         </is>
@@ -3459,10 +3879,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>21853</v>
+        <v>30431</v>
       </c>
       <c r="C85" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3476,17 +3896,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['informasi', 'kapal', 'silakan', 'menggunakan', 'link', 'terlampir']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['informasi', 'kapal', 'silahkan', 'link', 'terlampir']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['informasi', 'kapal', 'silah', 'link', 'lampir']</t>
+          <t>['informasi', 'kapal', 'silakan', 'link', 'terlampir']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['informasi', 'kapal', 'sila', 'link', 'lampir']</t>
         </is>
       </c>
     </row>
@@ -3495,10 +3920,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>21854</v>
+        <v>30432</v>
       </c>
       <c r="C86" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -3512,17 +3937,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
+          <t>['untuk', 'informasi', 'crude', 'lpg', 'dan', 'bahan, bakar, minyak', 'silakan', 'menggunakan', 'link', 'terlampir']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['informasi', 'crude', 'lpg', 'bbm', 'silahkan', 'link', 'terlampir']</t>
-        </is>
-      </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['informasi', 'crude', 'lpg', 'bbm', 'silah', 'link', 'lampir']</t>
+          <t>['informasi', 'crude', 'lpg', 'bahan, bakar, minyak', 'silakan', 'link', 'terlampir']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['informasi', 'crude', 'lpg', 'bahan bakar minyak', 'sila', 'link', 'lampir']</t>
         </is>
       </c>
     </row>
@@ -3531,10 +3961,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>21855</v>
+        <v>30433</v>
       </c>
       <c r="C87" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -3548,17 +3978,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>['mulai', 'hari', 'ini', 'akses', 'informasi', 'operasional', 'pt', 'pertamina', 'persero', 'terkait', 'pengadaan', 'crude', 'lpg', 'dan', 'bahan, bakar, minyak', 'termasuk', 'st']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['akses', 'informasi', 'operasional', 'pt', 'pertamina', 'persero', 'terkait', 'pengadaan', 'crude', 'lpg', 'bbm', 'st']</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['akses', 'informasi', 'operasional', 'pt', 'pertamina', 'persero', 'kait', 'ada', 'crude', 'lpg', 'bbm', 'st']</t>
+          <t>['akses', 'informasi', 'operasional', 'pt', 'pertamina', 'persero', 'terkait', 'pengadaan', 'crude', 'lpg', 'bahan, bakar, minyak', 'st']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['akses', 'informasi', 'operasional', 'pt', 'pertamina', 'persero', 'kait', 'ada', 'crude', 'lpg', 'bahan bakar minyak', 'st']</t>
         </is>
       </c>
     </row>
@@ -3567,10 +4002,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>21856</v>
+        <v>30434</v>
       </c>
       <c r="C88" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3584,15 +4019,20 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
+          <t>['untuk', 'yang', 'merayakan', 'saya', 'ucapkan', 'selamat', 'tahun', 'baru', 'imlek', 'semoga', 'tahun', 'baru', 'imlek', 'ini', 'hidup', 'kita', 'keluarga', 'kita']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>['merayakan', 'ucapkan', 'selamat', 'imlek', 'semoga', 'imlek', 'hidup', 'keluarga']</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>['raya', 'ucap', 'selamat', 'imlek', 'moga', 'imlek', 'hidup', 'keluarga']</t>
         </is>
@@ -3603,10 +4043,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>21857</v>
+        <v>30435</v>
       </c>
       <c r="C89" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3620,17 +4060,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
+          <t>['selamat', 'ulang', 'tahun', 'yang', 'ke', 'tahun', 'ibu', 'megawati', 'soekarno, putri', 'sehat', 'selalu', 'dan', 'tetap', 'menginspirasi', 'kami', 'dalam', 'se']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['selamat', 'ulang', 'megawati', 'soekarnoputri', 'sehat', 'menginspirasi']</t>
-        </is>
-      </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['selamat', 'ulang', 'megawati', 'soekarnoputri', 'sehat', 'inspirasi']</t>
+          <t>['selamat', 'ulang', 'megawati', 'soekarno, putri', 'sehat', 'menginspirasi']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['selamat', 'ulang', 'megawati', 'soekarno putri', 'sehat', 'inspirasi']</t>
         </is>
       </c>
     </row>
@@ -3639,10 +4084,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>21858</v>
+        <v>30436</v>
       </c>
       <c r="C90" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3656,15 +4101,20 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
+          <t>['salah', 'satunya', 'adalah', 'dengan', 'mengutamakan', 'komoditas', 'sawit', 'domestik', 'sebagai', 'bahan', 'campuran', 'bahan', 'bakar', 'yang', 'bertujuan']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>['salah', 'satunya', 'mengutamakan', 'komoditas', 'sawit', 'domestik', 'bahan', 'campuran', 'bahan', 'bakar', 'bertujuan']</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>['salah', 'satu', 'utama', 'komoditas', 'sawit', 'domestik', 'bahan', 'campur', 'bahan', 'bakar', 'tuju']</t>
         </is>
@@ -3675,10 +4125,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>21859</v>
+        <v>30437</v>
       </c>
       <c r="C91" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3692,15 +4142,20 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
+          <t>['menjadi', 'pembicara', 'di', 'atlantic', 'council', 'global', 'energy', 'forum', 'yang', 'digelar', 'di', 'abu', 'dhabi', 'uni', 'emirat', 'arab', 'janu']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>['pembicara', 'atlantic', 'council', 'global', 'energy', 'forum', 'digelar', 'abu', 'dhabi', 'uni', 'emirat', 'arab', 'janu']</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>['bicara', 'atlantic', 'council', 'global', 'energy', 'forum', 'gelar', 'abu', 'dhabi', 'uni', 'emirat', 'arab', 'janu']</t>
         </is>
@@ -3711,10 +4166,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>21860</v>
+        <v>30438</v>
       </c>
       <c r="C92" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3728,17 +4183,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>['rt', 'peserta', 'hari, ulang, tahun', 'dan', 'rakernas', 'partai, demokrasi, indonesia', 'perjuangan', 'adalah', 'pengurus', 'dasar, pengenaan, pajak', 'dewan, perwakilan, daerah', 'legislatif', 'dan', 'eksekutif', 'dari', 'sabang', 'sampai', 'merauke', 'mulai', 'mem']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>['peserta', 'hut', 'rakernas', 'pdi', 'perjuangan', 'pengurus', 'dpp', 'dpd', 'legislatif', 'eksekutif', 'sabang', 'merauke', 'mem']</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['serta', 'hut', 'rakernas', 'pdi', 'juang', 'urus', 'dpp', 'dpd', 'legislatif', 'eksekutif', 'sabang', 'merauke', 'mem']</t>
+          <t>['peserta', 'hari, ulang, tahun', 'rakernas', 'partai, demokrasi, indonesia', 'perjuangan', 'pengurus', 'dasar, pengenaan, pajak', 'dewan, perwakilan, daerah', 'legislatif', 'eksekutif', 'sabang', 'merauke', 'mem']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['serta', 'hari ulang tahun', 'rakernas', 'partai demokrasi indonesia', 'juang', 'urus', 'dasar kena pajak', 'dewan wakil daerah', 'legislatif', 'eksekutif', 'sabang', 'merauke', 'mem']</t>
         </is>
       </c>
     </row>
@@ -3747,10 +4207,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>21861</v>
+        <v>30439</v>
       </c>
       <c r="C93" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3764,15 +4224,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>['selamat', 'ulang', 'tahun', 'perjuangan', 'mari', 'bersamasama', 'kita', 'wujudkan', 'keadlian', 'sosial', 'bagi', 'seluruh', 'rakyat', 'indonesia']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'perjuangan', 'mari', 'bersamasama', 'wujudkan', 'keadlian', 'sosial', 'rakyat', 'indonesia']</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>['selamat', 'ulang', 'juang', 'mari', 'bersamasama', 'wujud', 'keadlian', 'sosial', 'rakyat', 'indonesia']</t>
         </is>
@@ -3783,10 +4248,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>21862</v>
+        <v>30440</v>
       </c>
       <c r="C94" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3800,17 +4265,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
+          <t>['pameran', 'inovasi', 'dalam', 'rangka', 'hari, ulang, tahun', 'perjuangan']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>['pameran', 'inovasi', 'rangka', 'hut', 'perjuangan']</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['pamer', 'inovasi', 'rangka', 'hut', 'juang']</t>
+          <t>['pameran', 'inovasi', 'rangka', 'hari, ulang, tahun', 'perjuangan']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['pamer', 'inovasi', 'rangka', 'hari ulang tahun', 'juang']</t>
         </is>
       </c>
     </row>
@@ -3819,10 +4289,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>21863</v>
+        <v>30441</v>
       </c>
       <c r="C95" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3836,15 +4306,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>['turut', 'berduka', 'cita', 'atas', 'korbankorban', 'meninggal', 'di', 'jakarta', 'dan', 'sekitarnya', 'untuk', 'warga', 'yang', 'tinggal', 'di']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>['berduka', 'cita', 'korbankorban', 'meninggal', 'jakarta', 'warga', 'tinggal']</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>['duka', 'cita', 'korbankorban', 'tinggal', 'jakarta', 'warga', 'tinggal']</t>
         </is>
@@ -3855,10 +4330,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>21864</v>
+        <v>30442</v>
       </c>
       <c r="C96" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -3872,17 +4347,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['rt', 'dapur', 'umum', 'baguna', 'dari', 'dewan, perwakilan, daerah', 'partai, demokrasi, indonesia', 'perjuangan', 'ready', 'ada', 'di', 'tebet', 'raya', 'no', 'jaksel', 'untuk', 'warga', 'pengungsi', 'banjir', 'darimanapun', 'bisa']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['dapur', 'baguna', 'dpd', 'pdi', 'perjuangan', 'ready', 'tebet', 'raya', 'no', 'jaksel', 'warga', 'pengungsi', 'banjir', 'darimanapun']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['dapur', 'baguna', 'dpd', 'pdi', 'juang', 'ready', 'tebet', 'raya', 'no', 'jaksel', 'warga', 'ungsi', 'banjir', 'darimanapun']</t>
+          <t>['dapur', 'baguna', 'dewan, perwakilan, daerah', 'partai, demokrasi, indonesia', 'perjuangan', 'ready', 'tebet', 'raya', 'no', 'jaksel', 'warga', 'pengungsi', 'banjir', 'darimanapun']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['dapur', 'baguna', 'dewan wakil daerah', 'partai demokrasi indonesia', 'juang', 'ready', 'tebet', 'raya', 'no', 'jaksel', 'warga', 'ungsi', 'banjir', 'darimanapun']</t>
         </is>
       </c>
     </row>
@@ -3891,10 +4371,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>21865</v>
+        <v>30443</v>
       </c>
       <c r="C97" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3908,15 +4388,20 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
+          <t>['selamat', 'natal', 'untuk', 'yang', 'merayakannya', 'semoga', 'sukacita', 'kasih', 'dan', 'damai', 'selalu', 'menyertai', 'saudarasaudara', 'semua']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>['selamat', 'natal', 'merayakannya', 'semoga', 'sukacita', 'kasih', 'damai', 'menyertai', 'saudarasaudara']</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>['selamat', 'natal', 'raya', 'moga', 'sukacita', 'kasih', 'damai', 'serta', 'saudarasaudara']</t>
         </is>
@@ -3927,10 +4412,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>21866</v>
+        <v>30444</v>
       </c>
       <c r="C98" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3944,15 +4429,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>['bersama', 'dengan', 'para', 'petugas', 'spbu', 'yang', 'selalu', 'melayani', 'masyarakat', 'dengan', 'hati', 'bersama', 'merekalah', 'saya', 'yakin', 'program']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>['petugas', 'spbu', 'melayani', 'masyarakat', 'hati', 'program']</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>['tugas', 'spbu', 'layan', 'masyarakat', 'hati', 'program']</t>
         </is>
@@ -3963,10 +4453,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>21867</v>
+        <v>30445</v>
       </c>
       <c r="C99" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3980,17 +4470,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
+          <t>['tantangan', 'ke', 'depan', 'pasti', 'banyak', 'tapi', 'tantangan', 'ini', 'adalah', 'peluang', 'amp', 'menjadi', 'pengingat', 'bahwa', 'kita', 'perlu', 'bekerja', 'sama']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>['tantangan', 'tantangan', 'peluang', 'pengingat', 'sam']</t>
-        </is>
-      </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['tantang', 'tantang', 'peluang', 'ingat', 'sam']</t>
+          <t>['tantangan', 'tantangan', 'peluang', 'pengingat']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['tantang', 'tantang', 'peluang', 'ingat']</t>
         </is>
       </c>
     </row>
@@ -3999,10 +4494,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>21868</v>
+        <v>30446</v>
       </c>
       <c r="C100" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -4016,17 +4511,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['rt', 'teman', 'warga', 'jakarta', 'bisa', 'follow', 'jakarta', 'untuk', 'melihat', 'pembaruan', 'kerja', 'wakil', 'rakyatmu', 'dari', 'fraksi', 'perjuangan', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['teman', 'warga', 'jakarta', 'follow', 'jakarta', 'update', 'kerja', 'wakil', 'rakyatmu', 'fraksi', 'perjuangan', 'dki']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['teman', 'warga', 'jakarta', 'follow', 'jakarta', 'update', 'kerja', 'wakil', 'rakyat', 'fraksi', 'juang', 'dki']</t>
+          <t>['teman', 'warga', 'jakarta', 'follow', 'jakarta', 'pembaruan', 'kerja', 'wakil', 'rakyatmu', 'fraksi', 'perjuangan', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['teman', 'warga', 'jakarta', 'follow', 'jakarta', 'baru', 'kerja', 'wakil', 'rakyat', 'fraksi', 'juang', 'daerah khusus ibukota']</t>
         </is>
       </c>
     </row>
@@ -4035,10 +4535,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>21869</v>
+        <v>30447</v>
       </c>
       <c r="C101" t="n">
-        <v>265</v>
+        <v>354</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -4052,15 +4552,20 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['sistem', 'itu', 'berjalan', 'baik', 'jika', 'yang', 'input', 'datanya', 'tidak', 'ada', 'niat', 'markup', 'apalagi', 'maling', 'untuk', 'mencegah', 'korupsi', 'hany']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>['sistem', 'berjalan', 'input', 'datanya', 'niat', 'markup', 'maling', 'mencegah', 'korupsi', 'hany']</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>['sistem', 'jalan', 'input', 'data', 'niat', 'markup', 'maling', 'cegah', 'korupsi', 'hany']</t>
         </is>
